--- a/QHKH/BIEUMAUEXCEL/BM02CT.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM02CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D07A41-4AFB-4FEB-9D0B-D73D0D4B594E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB79D36-237E-4F7C-A493-4FD618847360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="1725" yWindow="3735" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Tỷ lệ (%)</t>
+  </si>
+  <si>
+    <t>BM02/CT</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -479,6 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,7 +513,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,7 +834,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,63 +843,65 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="21" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="9" t="s">
         <v>83</v>
       </c>
@@ -926,7 +934,7 @@
         <f>E7-D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="e">
+      <c r="G7" s="10" t="e">
         <f>5/D7</f>
         <v>#DIV/0!</v>
       </c>
@@ -947,7 +955,7 @@
         <f t="shared" ref="F8:F43" si="0">E8-D8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="20" t="e">
+      <c r="G8" s="10" t="e">
         <f t="shared" ref="G8:G43" si="1">5/D8</f>
         <v>#DIV/0!</v>
       </c>
@@ -966,7 +974,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="20" t="e">
+      <c r="G9" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -987,7 +995,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="20" t="e">
+      <c r="G10" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1008,7 +1016,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="20" t="e">
+      <c r="G11" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1029,7 +1037,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="20" t="e">
+      <c r="G12" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1050,7 +1058,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="20" t="e">
+      <c r="G13" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1069,7 +1077,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="20" t="e">
+      <c r="G14" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1090,7 +1098,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="20" t="e">
+      <c r="G15" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1111,7 +1119,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="20" t="e">
+      <c r="G16" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1132,7 +1140,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="20" t="e">
+      <c r="G17" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1153,7 +1161,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="20" t="e">
+      <c r="G18" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1174,7 +1182,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="20" t="e">
+      <c r="G19" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1195,7 +1203,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="20" t="e">
+      <c r="G20" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1216,7 +1224,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="20" t="e">
+      <c r="G21" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1237,7 +1245,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="20" t="e">
+      <c r="G22" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1258,7 +1266,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="20" t="e">
+      <c r="G23" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1279,7 +1287,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="20" t="e">
+      <c r="G24" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1300,7 +1308,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="20" t="e">
+      <c r="G25" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1321,7 +1329,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="20" t="e">
+      <c r="G26" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1342,7 +1350,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="20" t="e">
+      <c r="G27" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1363,7 +1371,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="20" t="e">
+      <c r="G28" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1384,7 +1392,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="20" t="e">
+      <c r="G29" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1405,7 +1413,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="20" t="e">
+      <c r="G30" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1426,7 +1434,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="20" t="e">
+      <c r="G31" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1447,7 +1455,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="20" t="e">
+      <c r="G32" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1468,7 +1476,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="20" t="e">
+      <c r="G33" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1489,7 +1497,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="20" t="e">
+      <c r="G34" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1510,7 +1518,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="20" t="e">
+      <c r="G35" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1531,7 +1539,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="20" t="e">
+      <c r="G36" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1552,7 +1560,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="20" t="e">
+      <c r="G37" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1573,7 +1581,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="20" t="e">
+      <c r="G38" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1594,7 +1602,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="20" t="e">
+      <c r="G39" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1615,7 +1623,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="20" t="e">
+      <c r="G40" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1636,7 +1644,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="20" t="e">
+      <c r="G41" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1657,7 +1665,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="20" t="e">
+      <c r="G42" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1678,7 +1686,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="20" t="e">
+      <c r="G43" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
